--- a/tests/test_xls/sheet_accounts/test_select/expected_result.xlsx
+++ b/tests/test_xls/sheet_accounts/test_select/expected_result.xlsx
@@ -525,7 +525,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -552,7 +552,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -671,7 +671,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -698,7 +698,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -817,7 +817,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -844,7 +844,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -963,7 +963,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -990,7 +990,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
